--- a/biology/Zoologie/Carapus/Carapus.xlsx
+++ b/biology/Zoologie/Carapus/Carapus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carapus est un genre de poissons de la famille des Carapidae. 
 La plupart des espèces vivent en symbiose avec des organismes benthiques comme des étoiles de mer ou des holothuries. Ces poissons vivent dans le cloaque de leurs symbiote.
@@ -512,17 +524,19 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (14 février 2015)[2], FishBase                                           (14 février 2015)[3] et ITIS      (14 février 2015)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (14 février 2015), FishBase                                           (14 février 2015) et ITIS      (14 février 2015) :
 Carapus acus (Brünnich, 1768)
 Carapus bermudensis (Jones, 1874)
 Carapus dubius (Putnam, 1874)
 Carapus mourlani (Petit, 1934)
 Carapus sluiteri (Weber, 1905)
-Selon Paleobiology Database                   (14 février 2015)[5] :
+Selon Paleobiology Database                   (14 février 2015) :
 Carapus smithvillensis
-Selon World Register of Marine Species                               (14 février 2015)[6] :
+Selon World Register of Marine Species                               (14 février 2015) :
 Carapus acus (Brünnich, 1768)
 Carapus bermudensis (Jones, 1874)
 Carapus boraborensis (Kaup, 1856)
